--- a/Offline/BusinessManagement/Ops/ManagementOps/DailyStatus.xlsx
+++ b/Offline/BusinessManagement/Ops/ManagementOps/DailyStatus.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$26</definedName>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="76">
   <si>
     <t>Item Number</t>
   </si>
@@ -147,9 +148,6 @@
     <t>Ananya Moitra</t>
   </si>
   <si>
-    <t>Shayan Basak</t>
-  </si>
-  <si>
     <t>Charles Victor Roy</t>
   </si>
   <si>
@@ -181,14 +179,91 @@
   </si>
   <si>
     <t>Working</t>
+  </si>
+  <si>
+    <t>Sayan Basak</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Admin Activities</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>Novemeber</t>
+  </si>
+  <si>
+    <t>External</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Furniture Reparing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internet Issue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internet Bill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A/C Service </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -216,8 +291,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,16 +604,16 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -558,7 +637,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -642,7 +721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -656,7 +735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -670,7 +749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -698,7 +777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -709,10 +788,10 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -726,7 +805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -754,7 +833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -796,7 +875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -810,7 +889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -866,7 +945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -877,10 +956,10 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -891,10 +970,10 @@
         <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -905,14 +984,14 @@
         <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F26">
     <filterColumn colId="2">
       <filters>
-        <filter val="Anirban"/>
+        <filter val="Rahul"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -921,6 +1000,98 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P13"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -932,12 +1103,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,25 +1122,25 @@
         <v>35</v>
       </c>
       <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
         <v>50</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>47</v>
-      </c>
-      <c r="H1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -977,37 +1148,169 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Offline/BusinessManagement/Ops/ManagementOps/DailyStatus.xlsx
+++ b/Offline/BusinessManagement/Ops/ManagementOps/DailyStatus.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A1C45E-16CC-417C-9F00-F2E8167FC56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="ActivityTracker" sheetId="1" r:id="rId1"/>
+    <sheet name="WorkDays" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ActivityTracker!$A$1:$F$26</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="63">
   <si>
     <t>Item Number</t>
   </si>
@@ -181,14 +181,49 @@
   </si>
   <si>
     <t>Working</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Planned for 10-Nov After morning stand-up</t>
+  </si>
+  <si>
+    <t>Planned for 14-Nov After morning stand-up</t>
+  </si>
+  <si>
+    <t>Planned for 09-Nov after evening call</t>
+  </si>
+  <si>
+    <t>Anirban, Sayan &amp; Rahul to finalize the syllabus on 09-Nov</t>
+  </si>
+  <si>
+    <t>Aniban to review the training plan by 10-Nov</t>
+  </si>
+  <si>
+    <t>ID card for all</t>
+  </si>
+  <si>
+    <t>Merch for Marketing Team</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -216,8 +251,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -236,9 +272,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -276,9 +312,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,7 +349,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -348,7 +384,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -521,44 +557,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.86328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -569,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -586,7 +621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -600,7 +635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -611,10 +646,13 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -625,10 +663,13 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -642,7 +683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -653,10 +694,13 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -667,10 +711,13 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -681,10 +728,10 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -695,10 +742,13 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -712,7 +762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -726,7 +776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -740,7 +790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -751,10 +801,10 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -768,7 +818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -782,7 +832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -796,7 +846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -810,7 +860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -824,7 +874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -838,7 +888,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -852,7 +902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -866,7 +916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -877,10 +927,10 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -891,10 +941,10 @@
         <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -905,48 +955,58 @@
         <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F26">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Anirban"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F26" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="8" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.1328125" customWidth="1"/>
+    <col min="2" max="8" width="11.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -972,42 +1032,186 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
